--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="25545" windowHeight="12000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
     <sheet name="userinfo" sheetId="5" r:id="rId2"/>
     <sheet name="device" sheetId="1" r:id="rId3"/>
-    <sheet name="software" sheetId="3" r:id="rId4"/>
-    <sheet name="offlinemsg" sheetId="4" r:id="rId5"/>
-    <sheet name="taskinfo" sheetId="7" r:id="rId6"/>
-    <sheet name="syslog" sheetId="6" r:id="rId7"/>
+    <sheet name="devicesw" sheetId="9" r:id="rId4"/>
+    <sheet name="software" sheetId="3" r:id="rId5"/>
+    <sheet name="offlinemsg" sheetId="4" r:id="rId6"/>
+    <sheet name="taskinfo" sheetId="7" r:id="rId7"/>
+    <sheet name="syslog" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="216">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -185,6 +186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v0.3修改</t>
     </r>
     <r>
@@ -206,6 +214,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v0.3修改</t>
     </r>
     <r>
@@ -502,6 +517,18 @@
     <t>人脸库id</t>
   </si>
   <si>
+    <t>devicesw（设备软件信息表）</t>
+  </si>
+  <si>
+    <t>设备id</t>
+  </si>
+  <si>
+    <t>软件状态</t>
+  </si>
+  <si>
+    <t>0,1（0-已卸载；1-在运行）</t>
+  </si>
+  <si>
     <t>software（软件信息表）</t>
   </si>
   <si>
@@ -687,10 +714,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -721,6 +748,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -730,7 +779,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,47 +852,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,46 +878,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -886,25 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,61 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,31 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,7 +997,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,19 +1027,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,63 +1124,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1197,6 +1167,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1205,10 +1232,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,133 +1244,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1945,8 +1972,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2294,8 +2321,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3098,10 +3125,268 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.05" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.1916666666667" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>256</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>512</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3118,7 +3403,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3205,10 +3490,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3224,10 +3509,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -3241,10 +3526,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -3258,10 +3543,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3273,7 +3558,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -3312,10 +3597,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -3327,7 +3612,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -3349,10 +3634,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -3364,15 +3649,15 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -3384,15 +3669,15 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -3404,15 +3689,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -3426,10 +3711,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -3441,15 +3726,15 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -3461,7 +3746,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -3481,7 +3766,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -3494,13 +3779,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3517,7 +3802,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3570,10 +3855,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -3587,10 +3872,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -3607,7 +3892,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -3619,7 +3904,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3662,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3674,7 +3959,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3683,7 +3968,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3723,7 +4008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
@@ -3746,7 +4031,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3802,7 +4087,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -3816,10 +4101,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -3835,10 +4120,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -3891,7 +4176,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3903,7 +4188,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3912,7 +4197,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -3952,7 +4237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -3975,7 +4260,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4028,10 +4313,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4045,10 +4330,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4062,10 +4347,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4084,7 +4369,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -4098,10 +4383,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -4117,10 +4402,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>

--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12000" activeTab="3"/>
+    <workbookView windowWidth="25545" windowHeight="12000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="devicesw" sheetId="9" r:id="rId4"/>
     <sheet name="software" sheetId="3" r:id="rId5"/>
     <sheet name="offlinemsg" sheetId="4" r:id="rId6"/>
-    <sheet name="taskinfo" sheetId="7" r:id="rId7"/>
-    <sheet name="syslog" sheetId="6" r:id="rId8"/>
+    <sheet name="vrdevice" sheetId="10" r:id="rId7"/>
+    <sheet name="taskinfo" sheetId="7" r:id="rId8"/>
+    <sheet name="syslog" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="228">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -526,7 +527,7 @@
     <t>软件状态</t>
   </si>
   <si>
-    <t>0,1（0-已卸载；1-在运行）</t>
+    <t>0,1,2（0-已卸载；1-在运行；2-升级中）</t>
   </si>
   <si>
     <t>software（软件信息表）</t>
@@ -649,6 +650,48 @@
     <t>重发次数</t>
   </si>
   <si>
+    <t>vrdevice（虚拟设备信息表）</t>
+  </si>
+  <si>
+    <t>vrdeviceid</t>
+  </si>
+  <si>
+    <t>虚拟设备ID</t>
+  </si>
+  <si>
+    <t>虚拟设备名称</t>
+  </si>
+  <si>
+    <t>设备的名称</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>虚拟设备类型</t>
+  </si>
+  <si>
+    <t>0,1（0-服务；1-EMQ设备）</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>虚拟设备信息</t>
+  </si>
+  <si>
+    <t>一般为json数据串</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>协议版本</t>
+  </si>
+  <si>
+    <t>V0.8</t>
+  </si>
+  <si>
     <t>taskinfo（任务信息表）</t>
   </si>
   <si>
@@ -661,9 +704,6 @@
     <t>任务类型</t>
   </si>
   <si>
-    <t>info</t>
-  </si>
-  <si>
     <t>任务内容</t>
   </si>
   <si>
@@ -680,9 +720,6 @@
   </si>
   <si>
     <t>操作说明</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>操作类型</t>
@@ -714,10 +751,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -748,18 +785,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -777,9 +822,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,15 +860,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +884,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,9 +899,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,41 +923,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -913,97 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,61 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,13 +986,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,6 +1161,54 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1159,6 +1244,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1167,63 +1261,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1232,10 +1269,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,133 +1281,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,13 +1430,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2262,7 +2299,7 @@
       <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="2"/>
@@ -2283,7 +2320,7 @@
       <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2321,8 +2358,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2349,25 +2386,25 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3125,10 +3162,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3155,25 +3192,25 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3215,48 +3252,53 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
         <v>64</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>256</v>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>93</v>
+      <c r="F6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -3268,81 +3310,75 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>512</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>32</v>
-      </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -3351,23 +3387,6 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3745,7 +3764,7 @@
       <c r="E19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3765,7 +3784,7 @@
       <c r="E20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>185</v>
       </c>
       <c r="G20" s="2"/>
@@ -3785,7 +3804,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -4011,10 +4030,290 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.05" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.1916666666667" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>128</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2048</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>512</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -4031,7 +4330,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4087,7 +4386,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4101,10 +4400,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4120,10 +4419,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4176,7 +4475,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4188,7 +4487,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4237,7 +4536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G10"/>
@@ -4260,7 +4559,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4313,10 +4612,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4330,10 +4629,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4347,10 +4646,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4369,7 +4668,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -4383,10 +4682,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -4402,10 +4701,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>

--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12000" activeTab="6"/>
+    <workbookView windowWidth="25545" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="232">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -281,7 +281,7 @@
     <t>终端类型</t>
   </si>
   <si>
-    <t>0,1,2（0-终端；1-PC；2-Android）</t>
+    <t>0,1,2（0-未知；1-Windows；2-Android）</t>
   </si>
   <si>
     <t>terminfo</t>
@@ -488,6 +488,9 @@
     <t>设备ID</t>
   </si>
   <si>
+    <t>sam_id（作为22位全数字安全模块号）</t>
+  </si>
+  <si>
     <t>imei</t>
   </si>
   <si>
@@ -500,16 +503,25 @@
     <t>设备udid</t>
   </si>
   <si>
+    <t>adv_tid （作为14T广告平台终端id）</t>
+  </si>
+  <si>
     <t>uuid</t>
   </si>
   <si>
     <t>设备uuid</t>
   </si>
   <si>
+    <t>product_id（作为ZP码）</t>
+  </si>
+  <si>
     <t>barcode</t>
   </si>
   <si>
     <t>条码序列</t>
+  </si>
+  <si>
+    <t>user_sn （作为用户序列码）</t>
   </si>
   <si>
     <t>facelibrid</t>
@@ -752,9 +764,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -786,22 +798,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -809,21 +820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,22 +851,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -877,21 +873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,9 +903,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +962,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,31 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,139 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,21 +1176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1199,30 +1196,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,6 +1234,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1269,10 +1281,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1281,133 +1293,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2358,8 +2370,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3058,15 +3070,17 @@
       <c r="E36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -3082,10 +3096,10 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -3096,15 +3110,17 @@
       <c r="E38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" customHeight="1" spans="1:5">
+    <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
@@ -3115,13 +3131,16 @@
       <c r="E39" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
+      <c r="F39" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
@@ -3131,14 +3150,17 @@
       </c>
       <c r="E40" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -3182,7 +3204,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3238,7 +3260,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -3341,7 +3363,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3353,7 +3375,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -3422,7 +3444,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3509,10 +3531,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3528,10 +3550,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -3545,10 +3567,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -3562,10 +3584,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3577,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -3616,10 +3638,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -3631,7 +3653,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -3653,10 +3675,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -3668,15 +3690,15 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -3688,15 +3710,15 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -3708,15 +3730,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -3730,10 +3752,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -3745,15 +3767,15 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -3765,7 +3787,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -3785,7 +3807,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -3821,7 +3843,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3874,10 +3896,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -3891,10 +3913,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -3911,7 +3933,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -3923,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3966,7 +3988,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3978,7 +4000,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -3987,7 +4009,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4032,8 +4054,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -4050,7 +4072,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4103,10 +4125,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4127,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4139,7 +4161,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>82</v>
@@ -4147,10 +4169,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4162,15 +4184,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -4182,7 +4204,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -4279,10 +4301,10 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -4295,7 +4317,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4330,7 +4352,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4386,7 +4408,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4400,10 +4422,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4419,10 +4441,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4475,7 +4497,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4487,7 +4509,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4496,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4559,7 +4581,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4612,10 +4634,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4629,10 +4651,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4646,10 +4668,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4668,7 +4690,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -4682,10 +4704,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -4701,10 +4723,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>

--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -798,6 +798,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -805,7 +812,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,39 +833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,8 +848,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,6 +861,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,29 +888,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -935,7 +897,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,13 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,19 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,19 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,13 +1028,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,25 +1058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,19 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,25 +1100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1112,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,6 +1179,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1196,6 +1205,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,13 +1244,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,30 +1273,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1281,10 +1281,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,133 +1293,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2371,7 +2371,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2605,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>

--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="234">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -296,6 +296,9 @@
     <t>mac地址</t>
   </si>
   <si>
+    <t>lan_mac</t>
+  </si>
+  <si>
     <t>00-01-6C-06-A6-2</t>
   </si>
   <si>
@@ -317,7 +320,7 @@
     <t>设备类型</t>
   </si>
   <si>
-    <t>0,1（0-服务；1-终端）</t>
+    <t>作为meid</t>
   </si>
   <si>
     <t>IOS</t>
@@ -465,6 +468,9 @@
   </si>
   <si>
     <t>LAN地址</t>
+  </si>
+  <si>
+    <t>作为IP地址不做细致区分</t>
   </si>
   <si>
     <t>wifiip</t>
@@ -798,13 +804,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -812,7 +811,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +833,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,15 +878,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -888,28 +909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -927,6 +926,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -935,7 +941,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,13 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,115 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,7 +1010,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,13 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,6 +1107,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,67 +1185,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,6 +1220,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1281,145 +1287,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2370,8 +2376,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -2567,16 +2573,19 @@
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F10" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -2588,18 +2597,18 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -2610,19 +2619,19 @@
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>85</v>
+      <c r="F12" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -2634,15 +2643,15 @@
         <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -2654,18 +2663,18 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -2677,7 +2686,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2">
         <v>1000000</v>
@@ -2685,10 +2694,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -2700,18 +2709,18 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -2723,7 +2732,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="2">
         <v>456</v>
@@ -2731,10 +2740,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -2748,10 +2757,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -2763,18 +2772,18 @@
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -2788,10 +2797,10 @@
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -2805,10 +2814,10 @@
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
@@ -2822,10 +2831,10 @@
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
@@ -2839,10 +2848,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
@@ -2856,10 +2865,10 @@
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -2888,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:6">
@@ -2896,7 +2905,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -2908,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:5">
@@ -2930,7 +2939,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -2947,10 +2956,10 @@
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
@@ -2964,10 +2973,10 @@
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
@@ -2981,10 +2990,10 @@
     </row>
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
@@ -2996,15 +3005,15 @@
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -3014,14 +3023,17 @@
       </c>
       <c r="E33" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -3035,10 +3047,10 @@
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -3051,15 +3063,15 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -3071,16 +3083,16 @@
         <v>15</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -3096,10 +3108,10 @@
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -3111,16 +3123,16 @@
         <v>15</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" customHeight="1" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
@@ -3132,15 +3144,15 @@
         <v>15</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
@@ -3152,15 +3164,15 @@
         <v>15</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
@@ -3204,7 +3216,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3257,10 +3269,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -3274,10 +3286,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -3289,15 +3301,15 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -3309,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2">
         <v>1000000</v>
@@ -3317,10 +3329,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -3332,10 +3344,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -3355,7 +3367,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3363,7 +3375,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3375,7 +3387,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -3397,7 +3409,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -3444,7 +3456,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3497,10 +3509,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -3514,10 +3526,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -3531,10 +3543,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3550,10 +3562,10 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -3567,10 +3579,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -3584,10 +3596,10 @@
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -3599,7 +3611,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -3621,7 +3633,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
@@ -3638,10 +3650,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -3653,15 +3665,15 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -3675,10 +3687,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -3690,15 +3702,15 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -3710,15 +3722,15 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -3730,15 +3742,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -3752,10 +3764,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -3767,15 +3779,15 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -3787,7 +3799,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -3807,7 +3819,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -3843,7 +3855,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3896,10 +3908,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -3913,10 +3925,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -3933,7 +3945,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -3945,7 +3957,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -3988,7 +4000,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4000,7 +4012,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4009,7 +4021,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4072,7 +4084,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4125,10 +4137,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4149,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4161,18 +4173,18 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4184,15 +4196,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -4204,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -4225,7 +4237,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -4233,7 +4245,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4245,7 +4257,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
@@ -4267,10 +4279,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -4284,10 +4296,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -4301,10 +4313,10 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -4317,7 +4329,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4364,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4405,10 +4417,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4422,10 +4434,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4441,10 +4453,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4497,7 +4509,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4509,7 +4521,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4518,7 +4530,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4581,7 +4593,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4634,10 +4646,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4651,10 +4663,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4668,10 +4680,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4690,7 +4702,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -4704,10 +4716,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -4723,10 +4735,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>

--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12000" activeTab="2"/>
+    <workbookView windowWidth="25545" windowHeight="12075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
     <sheet name="userinfo" sheetId="5" r:id="rId2"/>
     <sheet name="device" sheetId="1" r:id="rId3"/>
     <sheet name="devicesw" sheetId="9" r:id="rId4"/>
-    <sheet name="software" sheetId="3" r:id="rId5"/>
-    <sheet name="offlinemsg" sheetId="4" r:id="rId6"/>
-    <sheet name="vrdevice" sheetId="10" r:id="rId7"/>
-    <sheet name="taskinfo" sheetId="7" r:id="rId8"/>
-    <sheet name="syslog" sheetId="6" r:id="rId9"/>
+    <sheet name="software (2)" sheetId="11" r:id="rId5"/>
+    <sheet name="software" sheetId="3" r:id="rId6"/>
+    <sheet name="offlinemsg" sheetId="4" r:id="rId7"/>
+    <sheet name="vrdevice" sheetId="10" r:id="rId8"/>
+    <sheet name="taskinfo" sheetId="7" r:id="rId9"/>
+    <sheet name="syslog" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="246">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -548,42 +549,90 @@
     <t>0,1,2（0-已卸载；1-在运行；2-升级中）</t>
   </si>
   <si>
+    <t>fileinfo（文件信息表）</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>文件名称</t>
+  </si>
+  <si>
+    <t>filesize</t>
+  </si>
+  <si>
+    <t>文件大小</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>0-未知；1-图片；2-视频；</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>文件相对路径</t>
+  </si>
+  <si>
+    <t>uploadname</t>
+  </si>
+  <si>
+    <t>上传文件名</t>
+  </si>
+  <si>
+    <t>uploadtime</t>
+  </si>
+  <si>
+    <t>上传时间</t>
+  </si>
+  <si>
+    <t>downstatus</t>
+  </si>
+  <si>
+    <t>下载状态</t>
+  </si>
+  <si>
+    <t>可用于监控下载进程</t>
+  </si>
+  <si>
+    <t>signflag</t>
+  </si>
+  <si>
+    <t>签名标志</t>
+  </si>
+  <si>
+    <t>true-加密；false-未加密</t>
+  </si>
+  <si>
+    <t>fitmodel</t>
+  </si>
+  <si>
+    <t>适用设备类型</t>
+  </si>
+  <si>
     <t>software（软件信息表）</t>
   </si>
   <si>
-    <t>uploadtime</t>
-  </si>
-  <si>
-    <t>上传时间</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>文件大小</t>
-  </si>
-  <si>
     <t>customername</t>
   </si>
   <si>
     <t>中文名称</t>
   </si>
   <si>
-    <t>downstatus</t>
-  </si>
-  <si>
-    <t>下载状态</t>
-  </si>
-  <si>
-    <t>可用于监控下载进程</t>
-  </si>
-  <si>
     <t>uploadsoftwarename</t>
   </si>
   <si>
-    <t>上传文件名</t>
-  </si>
-  <si>
     <t>平台唯一号</t>
   </si>
   <si>
@@ -605,12 +654,6 @@
     <t>1-应用软件；2-系统软件</t>
   </si>
   <si>
-    <t>signflag</t>
-  </si>
-  <si>
-    <t>签名标志</t>
-  </si>
-  <si>
     <t>true-带签名；false-不带签名</t>
   </si>
   <si>
@@ -627,12 +670,6 @@
   </si>
   <si>
     <t>相对路径</t>
-  </si>
-  <si>
-    <t>fitmodel</t>
-  </si>
-  <si>
-    <t>适用设备类型</t>
   </si>
   <si>
     <t>v0.2新增</t>
@@ -804,6 +841,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -811,7 +855,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,14 +877,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,33 +899,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -932,8 +953,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,7 +1005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,13 +1089,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,55 +1149,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,31 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,25 +1185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,6 +1228,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1202,36 +1248,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,17 +1270,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,10 +1324,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,133 +1336,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2022,6 +2059,214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>128</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>512</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2376,7 +2621,7 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -3199,7 +3444,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3436,10 +3681,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3509,16 +3754,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>15</v>
@@ -3526,16 +3771,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
@@ -3543,100 +3788,110 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>512</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>128</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>512</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -3648,24 +3903,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -3687,10 +3939,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -3702,126 +3954,45 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:6">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>16</v>
+        <v>1024</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>512</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3833,6 +4004,405 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D35" sqref="B13 D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.65" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>512</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>512</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
@@ -3855,7 +4425,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3908,10 +4478,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -3925,10 +4495,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -3945,7 +4515,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -3957,7 +4527,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -4000,7 +4570,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4012,7 +4582,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4021,7 +4591,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4061,7 +4631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G13"/>
@@ -4084,7 +4654,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4137,10 +4707,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4161,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4173,7 +4743,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
@@ -4181,10 +4751,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4196,15 +4766,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -4216,7 +4786,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -4313,10 +4883,10 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -4329,7 +4899,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4341,7 +4911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
@@ -4364,7 +4934,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4420,7 +4990,7 @@
         <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4434,10 +5004,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -4453,10 +5023,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4509,7 +5079,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4521,7 +5091,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4530,7 +5100,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4558,214 +5128,6 @@
         <v>256</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2">
-        <v>128</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>64</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>512</v>
-      </c>
-      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
+++ b/设备管理中间层/需求设计/业务表格设计V0.2.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="12075" activeTab="4"/>
+    <workbookView windowWidth="25545" windowHeight="12075" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="8" r:id="rId1"/>
     <sheet name="userinfo" sheetId="5" r:id="rId2"/>
     <sheet name="device" sheetId="1" r:id="rId3"/>
     <sheet name="devicesw" sheetId="9" r:id="rId4"/>
-    <sheet name="software (2)" sheetId="11" r:id="rId5"/>
-    <sheet name="software" sheetId="3" r:id="rId6"/>
-    <sheet name="offlinemsg" sheetId="4" r:id="rId7"/>
-    <sheet name="vrdevice" sheetId="10" r:id="rId8"/>
-    <sheet name="taskinfo" sheetId="7" r:id="rId9"/>
-    <sheet name="syslog" sheetId="6" r:id="rId10"/>
+    <sheet name="fileinfo" sheetId="11" r:id="rId5"/>
+    <sheet name="software (2)" sheetId="12" r:id="rId6"/>
+    <sheet name="software" sheetId="3" r:id="rId7"/>
+    <sheet name="offlinemsg" sheetId="4" r:id="rId8"/>
+    <sheet name="vrdevice" sheetId="10" r:id="rId9"/>
+    <sheet name="taskinfo" sheetId="7" r:id="rId10"/>
+    <sheet name="syslog" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="248">
   <si>
     <t>menu（菜单信息表）</t>
   </si>
@@ -603,76 +604,82 @@
     <t>可用于监控下载进程</t>
   </si>
   <si>
+    <t>md5size</t>
+  </si>
+  <si>
+    <t>MD5大小</t>
+  </si>
+  <si>
+    <t>fitmodel</t>
+  </si>
+  <si>
+    <t>适用设备类型</t>
+  </si>
+  <si>
+    <t>programs（节目单表）</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>customername</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>uploadsoftwarename</t>
+  </si>
+  <si>
+    <t>平台唯一号</t>
+  </si>
+  <si>
+    <t>filetimestamp</t>
+  </si>
+  <si>
+    <t>软件唯一号</t>
+  </si>
+  <si>
+    <t>平台用</t>
+  </si>
+  <si>
+    <t>softwaretype</t>
+  </si>
+  <si>
+    <t>软件类型</t>
+  </si>
+  <si>
+    <t>1-应用软件；2-系统软件</t>
+  </si>
+  <si>
     <t>signflag</t>
   </si>
   <si>
     <t>签名标志</t>
   </si>
   <si>
-    <t>true-加密；false-未加密</t>
-  </si>
-  <si>
-    <t>fitmodel</t>
-  </si>
-  <si>
-    <t>适用设备类型</t>
+    <t>true-带签名；false-不带签名</t>
+  </si>
+  <si>
+    <t>qrcode</t>
+  </si>
+  <si>
+    <t>二维码</t>
+  </si>
+  <si>
+    <t>qrpath</t>
+  </si>
+  <si>
+    <t>二维码路径</t>
+  </si>
+  <si>
+    <t>相对路径</t>
+  </si>
+  <si>
+    <t>v0.2新增</t>
   </si>
   <si>
     <t>software（软件信息表）</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>customername</t>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
-  <si>
-    <t>uploadsoftwarename</t>
-  </si>
-  <si>
-    <t>平台唯一号</t>
-  </si>
-  <si>
-    <t>filetimestamp</t>
-  </si>
-  <si>
-    <t>软件唯一号</t>
-  </si>
-  <si>
-    <t>平台用</t>
-  </si>
-  <si>
-    <t>softwaretype</t>
-  </si>
-  <si>
-    <t>软件类型</t>
-  </si>
-  <si>
-    <t>1-应用软件；2-系统软件</t>
-  </si>
-  <si>
-    <t>true-带签名；false-不带签名</t>
-  </si>
-  <si>
-    <t>qrcode</t>
-  </si>
-  <si>
-    <t>二维码</t>
-  </si>
-  <si>
-    <t>qrpath</t>
-  </si>
-  <si>
-    <t>二维码路径</t>
-  </si>
-  <si>
-    <t>相对路径</t>
-  </si>
-  <si>
-    <t>v0.2新增</t>
   </si>
   <si>
     <t>offlinemsg（离线消息表）</t>
@@ -806,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -840,13 +847,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -855,7 +856,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,32 +886,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,6 +916,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -946,10 +967,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,24 +983,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,7 +1012,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,13 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,19 +1048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,61 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,13 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,13 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,13 +1126,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,6 +1228,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1231,23 +1264,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,30 +1294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1306,13 +1309,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,10 +1331,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1336,133 +1343,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2062,6 +2069,235 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>256</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
@@ -2082,7 +2318,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2135,10 +2371,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2152,10 +2388,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -2169,10 +2405,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2191,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2205,10 +2441,10 @@
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -2224,10 +2460,10 @@
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -3681,10 +3917,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -3888,111 +4124,57 @@
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4004,6 +4186,405 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.65" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="43.1583333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>256</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>512</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>512</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G20"/>
@@ -4026,7 +4607,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4132,7 +4713,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>166</v>
@@ -4149,10 +4730,10 @@
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -4220,7 +4801,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>174</v>
@@ -4235,7 +4816,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
@@ -4257,10 +4838,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -4272,15 +4853,15 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -4292,15 +4873,15 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -4312,15 +4893,15 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>14</v>
@@ -4334,10 +4915,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -4349,15 +4930,15 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -4369,7 +4950,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
@@ -4389,7 +4970,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -4402,7 +4983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G11"/>
@@ -4425,7 +5006,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4478,10 +5059,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4495,10 +5076,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4515,7 +5096,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4527,7 +5108,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -4570,7 +5151,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -4582,7 +5163,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4591,7 +5172,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -4631,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G13"/>
@@ -4654,7 +5235,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4707,10 +5288,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -4731,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -4743,7 +5324,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>83</v>
@@ -4751,10 +5332,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -4766,15 +5347,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -4786,7 +5367,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -4883,10 +5464,10 @@
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -4899,236 +5480,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="21.5916666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.1666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.3416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.1916666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7083333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="43.1583333333333" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>256</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
